--- a/data/trans_dic/P33B_R3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P33B_R3-Edad-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.05282617880386324</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.06293128726745223</v>
+        <v>0.0629312872674522</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03737439847164127</v>
+        <v>0.03452423464450267</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0240650716858429</v>
+        <v>0.02692310140857522</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03825524320199095</v>
+        <v>0.03972927549600094</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1338468654222832</v>
+        <v>0.1221243380606429</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1028490337199835</v>
+        <v>0.1012754558863248</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09626439016070061</v>
+        <v>0.09813219962940516</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.05653034829807308</v>
+        <v>0.05653034829807309</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.1056533872609739</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03375806437005147</v>
+        <v>0.03179160684478444</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07935749437701464</v>
+        <v>0.07939457157376154</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06289942665909677</v>
+        <v>0.06393466960258587</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09133397175143422</v>
+        <v>0.09000158392017625</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1369713300806282</v>
+        <v>0.1368269391747013</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1032188454687878</v>
+        <v>0.1056719815033984</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1045513909964366</v>
+        <v>0.1072675931853183</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.119101593963821</v>
+        <v>0.1185653331131641</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1204893237636903</v>
+        <v>0.120369555833415</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1675868933205596</v>
+        <v>0.1692472839774804</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.166175784514156</v>
+        <v>0.1670160475618234</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1593901055614285</v>
+        <v>0.1586506528879569</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1417868959910802</v>
+        <v>0.1414342169936857</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.200733073187231</v>
+        <v>0.2002098681508918</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1775145991166947</v>
+        <v>0.1784975786961878</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1996913868172272</v>
+        <v>0.1998619802222274</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.250736685058096</v>
+        <v>0.2503895759336567</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2161289822035394</v>
+        <v>0.2171123709304851</v>
       </c>
     </row>
     <row r="16">
@@ -787,10 +787,10 @@
         <v>0.1717133962115522</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.3081719786771877</v>
+        <v>0.3081719786771878</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2399352857839651</v>
+        <v>0.239935285783965</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1442030644883925</v>
+        <v>0.1461330439799048</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2813772796843339</v>
+        <v>0.2758572504525016</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2167971191377126</v>
+        <v>0.2185178814053146</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2023765604602465</v>
+        <v>0.2048580195839489</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3372406960998</v>
+        <v>0.3384378169677145</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2614215007187164</v>
+        <v>0.2621478432710054</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>0.3137096828013817</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.2609945287638424</v>
+        <v>0.2609945287638425</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1713675047574875</v>
+        <v>0.1719053938661113</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.282851635386971</v>
+        <v>0.2812933763753067</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2368986029497071</v>
+        <v>0.2383257171213898</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2366331006627387</v>
+        <v>0.2367706065355004</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3456156867967372</v>
+        <v>0.3454323874808116</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2835769506045958</v>
+        <v>0.2856643748219064</v>
       </c>
     </row>
     <row r="22">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.3229168438714887</v>
+        <v>0.3229168438714888</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.3702442502650487</v>
+        <v>0.3702442502650486</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3512964637445374</v>
+        <v>0.3512964637445373</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2799483194579882</v>
+        <v>0.2813779503448459</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3364739884607511</v>
+        <v>0.338958823674777</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.326975779446833</v>
+        <v>0.3268891827650261</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3664380853911101</v>
+        <v>0.3700220199782331</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4057041684993542</v>
+        <v>0.4072299719755819</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3802593949837489</v>
+        <v>0.3791236016827101</v>
       </c>
     </row>
     <row r="25">
@@ -952,10 +952,10 @@
         <v>0.1544833784981426</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.2201583296902654</v>
+        <v>0.2201583296902653</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.1882404373811206</v>
+        <v>0.1882404373811207</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1410628028153882</v>
+        <v>0.1404877661425593</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2096581977364999</v>
+        <v>0.2085233523276036</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1803753939454212</v>
+        <v>0.1793032977574212</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.168065623630614</v>
+        <v>0.1668470330535761</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2324279539116074</v>
+        <v>0.232063047000463</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1973274072086536</v>
+        <v>0.1965445562060301</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>15241</v>
+        <v>14079</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8724</v>
+        <v>9760</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>29468</v>
+        <v>30604</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>54582</v>
+        <v>49801</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>37284</v>
+        <v>36714</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>74153</v>
+        <v>75592</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>16099</v>
+        <v>15161</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>39765</v>
+        <v>39783</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>61514</v>
+        <v>62526</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>43556</v>
+        <v>42921</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>68634</v>
+        <v>68562</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>100945</v>
+        <v>103344</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>64806</v>
+        <v>66490</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>74098</v>
+        <v>73764</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>149646</v>
+        <v>149498</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>103879</v>
+        <v>104908</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>103384</v>
+        <v>103907</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>197961</v>
+        <v>197042</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>99338</v>
+        <v>99091</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>147839</v>
+        <v>147454</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>255108</v>
+        <v>256521</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>139907</v>
+        <v>140027</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>184666</v>
+        <v>184411</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>310602</v>
+        <v>312015</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>87714</v>
+        <v>88888</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>171115</v>
+        <v>167758</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>263711</v>
+        <v>265804</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>123099</v>
+        <v>124608</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>205087</v>
+        <v>205815</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>317992</v>
+        <v>318876</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>69760</v>
+        <v>69979</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>124219</v>
+        <v>123534</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>200474</v>
+        <v>201682</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>96329</v>
+        <v>96385</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>151783</v>
+        <v>151702</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>239976</v>
+        <v>241742</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>86839</v>
+        <v>87283</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>156329</v>
+        <v>157483</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>253343</v>
+        <v>253276</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>113668</v>
+        <v>114780</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>188494</v>
+        <v>189203</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>294628</v>
+        <v>293748</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>498049</v>
+        <v>496019</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>782892</v>
+        <v>778655</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1310397</v>
+        <v>1302608</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>593388</v>
+        <v>589085</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>867918</v>
+        <v>866555</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1433550</v>
+        <v>1427863</v>
       </c>
     </row>
     <row r="36">
